--- a/src/main/resources/validate/inspection/success/inspection_valid_add.xlsx
+++ b/src/main/resources/validate/inspection/success/inspection_valid_add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiseungmin/Desktop/project/mom/src/main/resources/validate/inspection/success/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5029E15-E074-5F46-9D2F-0D198465DC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851E7B15-2A3F-5440-8952-1D368492C605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>질식 초음파 검사</t>
   </si>
@@ -29,39 +29,139 @@
   </si>
   <si>
     <t>itemId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>summary</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_item_1_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_item_title1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_item_content1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_item_2_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_item_title2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sub_item_content2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_item_1_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_item_question1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_item_answer1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_item_2_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_item_question2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_item_answer2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자궁 내 임신 여부와 태아의 초기 상태를 초음파로 확인합니다.</t>
+  </si>
+  <si>
+    <t>왜 해야하나요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임신 초기에 자궁 내 정상 임신인지 자궁 외 임신인지 정확하게 확인할 수 있습니다. 또한 태아의 초기 심장 박동과 임신 주수를 정확히 파악하여 임신 초기 건강 관리를 돕습니다. 초기에 이상 징후를 빨리 발견하여 적절한 조치를 취할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>이렇게 진행돼요!</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사 전 별도 준비는 필요하지 않으며, 누운 자세로 편안하게 진행합니다. 의료진이 질식 초음파 기기를 질 내에 삽입해 자궁과 태아 상태를 화면으로 확인합니다. 전체 과정은 약 5~10분 정도 소요되며, 통증은 거의 없지만 불편감을 느낄 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대답</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈액 속의 임신호르몬(hCG) 수치를 측정해 임신 여부를 확인합니다.</t>
+  </si>
+  <si>
+    <t>소변검사보다 더 정확하고 일찍 임신 여부를 진단할 수 있습니다. 임신 호르몬(hCG)의 수치를 통해 임신 초기 단계와 정상적인 임신 진행 여부를 확인할 수 있습니다. 또한 자궁 외 임신 등 이상 임신 가능성을 조기에 발견하여 적절한 대응을 돕습니다.</t>
+  </si>
+  <si>
+    <t>팔에서 소량의 혈액을 채취하는 간단한 검사로, 별도의 준비 과정은 없습니다. 채혈 시간은 1~2분 이내로 매우 빠르게 끝나고, 대부분 당일 또는 익일에 결과를 받을 수 있습니다. 검사 자체의 통증은 주사 바늘이 들어갈 때 따끔한 느낌 정도입니다.</t>
+  </si>
+  <si>
+    <t>임신 확인 소변검사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소변 내 임신호르몬(hCG)을 검출하여 임신 여부를 판단합니다.</t>
+  </si>
+  <si>
+    <t>가장 간단하고 빠르게 임신 여부를 확인할 수 있는 검사입니다. 집에서도 쉽게 할 수 있을 만큼 간편하며, 일반적으로 임신 초기 단계부터 hCG가 소변으로 배출되기 때문에 정확도도 높습니다. 빠른 결과로 인해 즉시 다음 단계의 진료 계획을 세울 수 있습니다.</t>
+  </si>
+  <si>
+    <t>아침 첫 소변을 사용하는 것이 가장 정확하며, 검사 막대에 소변을 묻혀 수 초에서 수 분 내 결과를 확인할 수 있습니다. 병원에서는 소변 샘플을 컵에 담아 제출하면 간단한 키트로 검사 결과를 알려줍니다. 전체 과정은 매우 간단하고 빠르게 완료됩니다.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,6 +176,14 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,9 +207,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -406,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -417,7 +527,7 @@
     <col min="1" max="6" width="32.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18">
+    <row r="1" spans="1:17" ht="18">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -425,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
@@ -434,10 +544,43 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="32" customHeight="1">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="32" customHeight="1">
       <c r="A2" s="1">
         <v>30000</v>
       </c>
@@ -445,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1">
         <v>10000</v>
@@ -453,19 +596,52 @@
       <c r="E2" s="1">
         <v>10006</v>
       </c>
-      <c r="F2" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="32" customHeight="1">
+      <c r="F2" s="2">
+        <v>31000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2">
+        <v>32000</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="3">
+        <v>33000</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3">
+        <v>34000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="32" customHeight="1">
       <c r="A3" s="1">
         <v>30001</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="1">
         <v>10000</v>
@@ -473,19 +649,52 @@
       <c r="E3" s="1">
         <v>10006</v>
       </c>
-      <c r="F3" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="32" customHeight="1">
+      <c r="F3" s="2">
+        <v>31001</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1">
+        <v>32001</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3">
+        <v>33001</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="3">
+        <v>34001</v>
+      </c>
+      <c r="P3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="32" customHeight="1">
       <c r="A4" s="1">
         <v>30002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="1">
         <v>10000</v>
@@ -493,11 +702,44 @@
       <c r="E4" s="1">
         <v>10006</v>
       </c>
-      <c r="F4" s="1">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32" customHeight="1">
+      <c r="F4" s="2">
+        <v>31002</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2">
+        <v>32002</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="3">
+        <v>33002</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="3">
+        <v>34002</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="32" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -505,7 +747,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="32" customHeight="1">
+    <row r="6" spans="1:17" ht="32" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -513,7 +755,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" ht="32" customHeight="1">
+    <row r="7" spans="1:17" ht="32" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -521,7 +763,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="32" customHeight="1">
+    <row r="8" spans="1:17" ht="32" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -529,7 +771,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" ht="32" customHeight="1">
+    <row r="9" spans="1:17" ht="32" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -537,7 +779,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" ht="32" customHeight="1">
+    <row r="10" spans="1:17" ht="32" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -545,7 +787,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" ht="32" customHeight="1">
+    <row r="11" spans="1:17" ht="32" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -553,7 +795,7 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="32" customHeight="1">
+    <row r="12" spans="1:17" ht="32" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -561,7 +803,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" ht="32" customHeight="1">
+    <row r="13" spans="1:17" ht="32" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -569,7 +811,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="32" customHeight="1">
+    <row r="14" spans="1:17" ht="32" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -577,7 +819,7 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:6" ht="32" customHeight="1">
+    <row r="15" spans="1:17" ht="32" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -585,7 +827,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" ht="32" customHeight="1">
+    <row r="16" spans="1:17" ht="32" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1162,7 +1404,7 @@
       <c r="F87" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
